--- a/Small Instances/Small5.xlsx
+++ b/Small Instances/Small5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobnitter/Documents/NTNU/Prosjektoppgave/samkjoring2022/Small Instances/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\samkjoring2022\Small Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2C19A1-C5C7-9C46-A65D-A19BA30AD1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DB7BFA-D08C-464A-9C30-383552CAEE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Small5" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Reisetider" sheetId="3" r:id="rId6"/>
     <sheet name="Koordinater" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -61,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="92">
   <si>
     <t>Rider</t>
   </si>
@@ -1110,21 +1108,21 @@
   <dimension ref="A1:AB932"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G5" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1168,54 +1166,56 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+      <c r="B2" s="3" t="str">
+        <f t="shared" ref="B2:B4" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
+        <v>Knappskog</v>
       </c>
       <c r="C2" s="3">
-        <f>_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D2" s="4">
-        <f>_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.382877999999998</v>
       </c>
       <c r="E2" s="5">
-        <f t="shared" ref="E2:F11" si="0">C2*111.021</f>
-        <v>554.37814551299994</v>
+        <f t="shared" ref="E2:F11" ca="1" si="1">C2*111.021</f>
+        <v>561.31429350899998</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" si="0"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6703.7674984380001</v>
+      </c>
+      <c r="G2" s="3" t="str">
+        <f t="shared" ref="G2:G4" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
+        <v>Årstad</v>
       </c>
       <c r="H2" s="6">
-        <f>_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I2" s="63">
-        <f>_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.363500999999999</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:K11" si="1">H2*111.021</f>
-        <v>591.31594242300002</v>
+        <f t="shared" ref="J2:K11" ca="1" si="3">H2*111.021</f>
+        <v>594.22380445500005</v>
       </c>
       <c r="K2" s="8">
-        <f t="shared" si="1"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
-        <f t="array" ref="M2">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
+        <v>58</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1240,54 +1240,56 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
+      <c r="B3" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Brattholmen</v>
       </c>
       <c r="C3" s="3">
-        <f>_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D5" si="2">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <f t="shared" ref="D3:D5" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.354616</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" si="0"/>
-        <v>554.37814551299994</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>572.01061175400002</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" si="0"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6700.629822936</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Årstad</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:H13" si="3">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <f t="shared" ref="H3:H13" ca="1" si="5">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I3" s="63">
-        <f>_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.363500999999999</v>
       </c>
       <c r="J3" s="8">
-        <f t="shared" si="1"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>594.22380445500005</v>
       </c>
       <c r="K3" s="8">
-        <f t="shared" si="1"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
-        <f t="array" ref="M3">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
+        <v>50</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1314,54 +1316,56 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
+      <c r="B4" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Foldnes</v>
       </c>
       <c r="C4" s="3">
-        <f>_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D4" s="4">
-        <f>_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.375988</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" ref="E4" si="4">C4*111.021</f>
-        <v>554.37814551299994</v>
+        <f t="shared" ref="E4" ca="1" si="6">C4*111.021</f>
+        <v>566.93628592800007</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4" si="5">D4*111.021</f>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
+        <f t="shared" ref="F4" ca="1" si="7">D4*111.021</f>
+        <v>6703.0025637480003</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ytrebygda</v>
       </c>
       <c r="H4" s="6">
-        <f>_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I4" s="63">
-        <f>_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.290962</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" ref="J4" si="6">H4*111.021</f>
-        <v>591.31594242300002</v>
+        <f t="shared" ref="J4" ca="1" si="8">H4*111.021</f>
+        <v>583.82346819600002</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" ref="K4" si="7">I4*111.021</f>
-        <v>6705.1587025890003</v>
+        <f t="shared" ref="K4" ca="1" si="9">I4*111.021</f>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
-        <f t="array" ref="M4">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
+        <v>48</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -1385,56 +1389,56 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3" t="str">
-        <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knarrevik</v>
+        <f t="shared" ref="B5:B13" ca="1" si="10">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
+        <v>Bildøyna</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1530250000000004</v>
+        <f t="shared" ref="C5:C13" ca="1" si="11">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>60.368082999999999</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>60.354084999999998</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>566.88266278499998</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G5" s="3" t="str">
-        <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <f t="shared" ref="G5:G13" ca="1" si="12">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
+        <v>Laksevåg</v>
       </c>
       <c r="H5" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.2647930000000001</v>
+      </c>
+      <c r="I5" s="63">
+        <f t="shared" ref="I5:I11" ca="1" si="13">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.379098999999997</v>
+      </c>
+      <c r="J5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
-      </c>
-      <c r="I5" s="63">
-        <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
-      </c>
-      <c r="J5" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -1455,16 +1459,16 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="3" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>Knarrevik</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v>5.1530250000000004</v>
       </c>
       <c r="D6" s="4">
@@ -1472,31 +1476,31 @@
         <v>60.368082999999999</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>572.0939885250001</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>6702.1249427430002</v>
       </c>
       <c r="G6" s="3" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.3261630000000002</v>
+      </c>
+      <c r="I6" s="63">
+        <f t="shared" ca="1" si="13"/>
+        <v>60.395409000000001</v>
+      </c>
+      <c r="J6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
-      </c>
-      <c r="I6" s="63">
-        <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
-      </c>
-      <c r="J6" s="8">
-        <f t="shared" ca="1" si="1"/>
         <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -1525,56 +1529,56 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="3" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>Bildøyna</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <f t="shared" ref="D7:D11" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.354084999999998</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>566.88266278499998</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G7" s="3" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.3523550000000002</v>
+      </c>
+      <c r="I7" s="63">
+        <f t="shared" ca="1" si="13"/>
+        <v>60.363500999999999</v>
+      </c>
+      <c r="J7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
-      </c>
-      <c r="I7" s="63">
-        <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
-      </c>
-      <c r="J7" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -1586,56 +1590,56 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>Spjeld</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D8" s="4">
+        <f t="shared" ca="1" si="14"/>
+        <v>60.390343000000001</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>559.50231976800001</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>6704.5962702030001</v>
+      </c>
+      <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354616</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
-      </c>
-      <c r="G8" s="3" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.2586760000000004</v>
+      </c>
+      <c r="I8" s="63">
+        <f t="shared" ca="1" si="13"/>
+        <v>60.290962</v>
+      </c>
+      <c r="J8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
-      </c>
-      <c r="I8" s="63">
-        <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
-      </c>
-      <c r="J8" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -1647,56 +1651,56 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="3" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>Bildøyna</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.0878129999999997</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D9" s="4">
+        <f t="shared" ca="1" si="14"/>
+        <v>60.354084999999998</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>566.88266278499998</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>6700.5708707849999</v>
+      </c>
+      <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
-      </c>
-      <c r="G9" s="3" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.2586760000000004</v>
+      </c>
+      <c r="I9" s="63">
+        <f t="shared" ca="1" si="13"/>
+        <v>60.290962</v>
+      </c>
+      <c r="J9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
-      </c>
-      <c r="I9" s="63">
-        <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
-      </c>
-      <c r="J9" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -1708,48 +1712,48 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.0396080000000003</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
+        <f t="shared" ca="1" si="14"/>
+        <v>60.375988</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>566.93628592800007</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>6703.0025637480003</v>
+      </c>
+      <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>60.390343000000001</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
-      </c>
-      <c r="G10" s="3" t="str">
-        <f t="shared" ca="1" si="10"/>
         <v>Årstad</v>
       </c>
       <c r="H10" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.3523550000000002</v>
+      </c>
+      <c r="I10" s="63">
+        <f t="shared" ca="1" si="13"/>
+        <v>60.363500999999999</v>
+      </c>
+      <c r="J10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
-      </c>
-      <c r="I10" s="63">
-        <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
-      </c>
-      <c r="J10" s="8">
-        <f t="shared" ca="1" si="1"/>
         <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
@@ -1757,7 +1761,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -1769,48 +1773,48 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>Telavåg</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D11" s="4">
+        <f t="shared" ca="1" si="14"/>
+        <v>60.261564</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>553.10906446199999</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>6690.2990968439999</v>
+      </c>
+      <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
-      </c>
-      <c r="G11" s="3" t="str">
-        <f t="shared" ca="1" si="10"/>
         <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.2647930000000001</v>
+      </c>
+      <c r="I11" s="63">
+        <f t="shared" ca="1" si="13"/>
+        <v>60.379098999999997</v>
+      </c>
+      <c r="J11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
-      </c>
-      <c r="I11" s="63">
-        <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
-      </c>
-      <c r="J11" s="8">
-        <f t="shared" ca="1" si="1"/>
         <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
@@ -1818,7 +1822,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -1831,56 +1835,56 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="3" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>Spjeld</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>4.9820219999999997</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <f t="shared" ref="D12:D13" ca="1" si="15">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.390343000000001</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>553.10906446199999</v>
+        <f t="shared" ref="E12:E13" ca="1" si="16">C12*111.021</f>
+        <v>559.50231976800001</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6690.2990968439999</v>
+        <f t="shared" ref="F12:F13" ca="1" si="17">D12*111.021</f>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G12" s="3" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
-        <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <f t="shared" ref="I12:I13" ca="1" si="18">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
-        <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>594.22380445500005</v>
+        <f t="shared" ref="J12:J13" ca="1" si="19">H12*111.021</f>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
-        <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6701.6162445210002</v>
+        <f t="shared" ref="K12:K13" ca="1" si="20">I12*111.021</f>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1895,60 +1899,60 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="3" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>Knarrevik</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" ca="1" si="13"/>
-        <v>60.388651000000003</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>60.368082999999999</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" ca="1" si="14"/>
-        <v>554.37814551299994</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>572.0939885250001</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>6704.4084226710002</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G13" s="3" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
-        <f t="shared" ca="1" si="16"/>
-        <v>60.363500999999999</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
-        <f t="shared" ca="1" si="18"/>
-        <v>6701.6162445210002</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1957,7 +1961,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -1967,7 +1971,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -1977,7 +1981,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -1987,7 +1991,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -2010,7 +2014,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -2035,7 +2039,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -2060,7 +2064,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -2091,7 +2095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -2122,7 +2126,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -2154,7 +2158,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -2170,19 +2174,19 @@
         <v>20</v>
       </c>
       <c r="T25" s="16">
-        <f t="shared" ref="T25:T47" si="19">S25+7</f>
+        <f t="shared" ref="T25:T47" si="21">S25+7</f>
         <v>27</v>
       </c>
       <c r="U25" s="23">
-        <f t="shared" ref="U25:U47" si="20">S25+4</f>
+        <f t="shared" ref="U25:U47" si="22">S25+4</f>
         <v>24</v>
       </c>
       <c r="V25" s="24">
-        <f t="shared" ref="V25:V47" si="21">S25+8</f>
+        <f t="shared" ref="V25:V47" si="23">S25+8</f>
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -2198,19 +2202,19 @@
         <v>21</v>
       </c>
       <c r="T26" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>28</v>
       </c>
       <c r="U26" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>25</v>
       </c>
       <c r="V26" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -2226,19 +2230,19 @@
         <v>17</v>
       </c>
       <c r="T27" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>24</v>
       </c>
       <c r="U27" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="V27" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -2254,19 +2258,19 @@
         <v>15</v>
       </c>
       <c r="T28" s="35">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>22</v>
       </c>
       <c r="U28" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>19</v>
       </c>
       <c r="V28" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -2282,19 +2286,19 @@
         <v>20</v>
       </c>
       <c r="T29" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>27</v>
       </c>
       <c r="U29" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>24</v>
       </c>
       <c r="V29" s="24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -2310,19 +2314,19 @@
         <v>15</v>
       </c>
       <c r="T30" s="35">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>22</v>
       </c>
       <c r="U30" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>19</v>
       </c>
       <c r="V30" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -2338,19 +2342,19 @@
         <v>21</v>
       </c>
       <c r="T31" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>28</v>
       </c>
       <c r="U31" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>25</v>
       </c>
       <c r="V31" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -2366,19 +2370,19 @@
         <v>29</v>
       </c>
       <c r="T32" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>36</v>
       </c>
       <c r="U32" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>33</v>
       </c>
       <c r="V32" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -2394,19 +2398,19 @@
         <v>11</v>
       </c>
       <c r="T33" s="40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="U33" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>15</v>
       </c>
       <c r="V33" s="19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -2420,19 +2424,19 @@
       </c>
       <c r="S34" s="41"/>
       <c r="T34" s="42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="U34" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="V34" s="44">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -2448,19 +2452,19 @@
         <v>14</v>
       </c>
       <c r="T35" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
       <c r="U35" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>18</v>
       </c>
       <c r="V35" s="35">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -2476,19 +2480,19 @@
         <v>33</v>
       </c>
       <c r="T36" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>40</v>
       </c>
       <c r="U36" s="38">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>37</v>
       </c>
       <c r="V36" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -2504,19 +2508,19 @@
         <v>17</v>
       </c>
       <c r="T37" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>24</v>
       </c>
       <c r="U37" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="V37" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -2532,19 +2536,19 @@
         <v>32</v>
       </c>
       <c r="T38" s="49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>39</v>
       </c>
       <c r="U38" s="36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>36</v>
       </c>
       <c r="V38" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -2560,19 +2564,19 @@
         <v>37</v>
       </c>
       <c r="T39" s="50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>44</v>
       </c>
       <c r="U39" s="47">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>41</v>
       </c>
       <c r="V39" s="51">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -2586,19 +2590,19 @@
       </c>
       <c r="S40" s="41"/>
       <c r="T40" s="42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="U40" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="V40" s="44">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -2614,19 +2618,19 @@
         <v>40</v>
       </c>
       <c r="T41" s="27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>47</v>
       </c>
       <c r="U41" s="50">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>44</v>
       </c>
       <c r="V41" s="52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -2642,19 +2646,19 @@
         <v>28</v>
       </c>
       <c r="T42" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>35</v>
       </c>
       <c r="U42" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>32</v>
       </c>
       <c r="V42" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -2670,19 +2674,19 @@
         <v>36</v>
       </c>
       <c r="T43" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>43</v>
       </c>
       <c r="U43" s="46">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>40</v>
       </c>
       <c r="V43" s="50">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -2698,19 +2702,19 @@
         <v>44</v>
       </c>
       <c r="T44" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>51</v>
       </c>
       <c r="U44" s="52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>48</v>
       </c>
       <c r="V44" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="58" t="s">
         <v>60</v>
       </c>
@@ -2718,19 +2722,19 @@
         <v>30</v>
       </c>
       <c r="T45" s="38">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>37</v>
       </c>
       <c r="U45" s="56">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>34</v>
       </c>
       <c r="V45" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="58" t="s">
         <v>36</v>
       </c>
@@ -2738,19 +2742,19 @@
         <v>15</v>
       </c>
       <c r="T46" s="35">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>22</v>
       </c>
       <c r="U46" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>19</v>
       </c>
       <c r="V46" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -2758,19 +2762,19 @@
         <v>26</v>
       </c>
       <c r="T47" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>33</v>
       </c>
       <c r="U47" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>30</v>
       </c>
       <c r="V47" s="24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -2787,18 +2791,18 @@
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2842,7 +2846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -2914,7 +2918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -2988,7 +2992,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -3059,7 +3063,7 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3130,7 +3134,7 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -3201,56 +3205,56 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -3262,56 +3266,56 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -3323,29 +3327,29 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0878129999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.352223000000002</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -3372,7 +3376,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -3384,29 +3388,29 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -3433,7 +3437,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -3445,7 +3449,7 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -3471,30 +3475,30 @@
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -3507,56 +3511,56 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -3571,215 +3575,215 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -3789,7 +3793,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -3799,7 +3803,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -3822,7 +3826,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -3847,7 +3851,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -3872,7 +3876,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -3903,7 +3907,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -3934,7 +3938,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -3966,7 +3970,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -3994,7 +3998,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -4022,7 +4026,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -4050,7 +4054,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -4078,7 +4082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -4106,7 +4110,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -4134,7 +4138,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -4162,7 +4166,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -4190,7 +4194,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -4218,7 +4222,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -4244,7 +4248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -4272,7 +4276,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -4300,7 +4304,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -4328,7 +4332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -4356,7 +4360,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -4384,7 +4388,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -4410,7 +4414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -4438,7 +4442,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -4466,7 +4470,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -4494,7 +4498,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -4522,7 +4526,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="58" t="s">
         <v>60</v>
       </c>
@@ -4542,7 +4546,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="58" t="s">
         <v>36</v>
       </c>
@@ -4562,7 +4566,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -4582,7 +4586,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -4599,18 +4603,18 @@
       <selection activeCell="A11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4654,7 +4658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -4726,7 +4730,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -4800,56 +4804,56 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -4870,7 +4874,7 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -4940,56 +4944,56 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -5010,56 +5014,56 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -5071,29 +5075,29 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5120,7 +5124,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -5132,29 +5136,29 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5181,7 +5185,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -5193,56 +5197,56 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -5254,56 +5258,56 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -5316,7 +5320,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -5337,8 +5341,8 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -5347,7 +5351,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -5357,7 +5361,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -5367,7 +5371,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -5377,7 +5381,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -5400,7 +5404,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -5425,7 +5429,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -5450,7 +5454,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -5481,7 +5485,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -5512,7 +5516,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -5544,7 +5548,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -5572,7 +5576,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -5600,7 +5604,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -5628,7 +5632,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -5656,7 +5660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -5684,7 +5688,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -5712,7 +5716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -5740,7 +5744,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -5768,7 +5772,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -5796,7 +5800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -5822,7 +5826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -5850,7 +5854,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -5878,7 +5882,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -5906,7 +5910,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -5934,7 +5938,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -5962,7 +5966,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -5988,7 +5992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -6016,7 +6020,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -6044,7 +6048,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -6072,7 +6076,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -6100,7 +6104,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="58" t="s">
         <v>60</v>
       </c>
@@ -6120,7 +6124,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="58" t="s">
         <v>36</v>
       </c>
@@ -6140,7 +6144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -6160,7 +6164,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -6180,19 +6184,19 @@
       <selection activeCell="N14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6236,7 +6240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -6308,7 +6312,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -6382,56 +6386,56 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -6452,56 +6456,56 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -6522,29 +6526,29 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6571,7 +6575,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -6592,7 +6596,7 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -6610,7 +6614,7 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -6628,7 +6632,7 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -6646,7 +6650,7 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -6664,7 +6668,7 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -6683,7 +6687,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -6704,12 +6708,12 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -6718,7 +6722,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -6728,7 +6732,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -6738,7 +6742,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -6748,7 +6752,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -6771,7 +6775,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -6796,7 +6800,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -6821,7 +6825,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -6852,7 +6856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -6883,7 +6887,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -6915,7 +6919,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -6943,7 +6947,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -6971,7 +6975,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -6999,7 +7003,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -7027,7 +7031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -7055,7 +7059,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -7083,7 +7087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -7111,7 +7115,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -7139,7 +7143,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -7167,7 +7171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -7193,7 +7197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -7221,7 +7225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -7249,7 +7253,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -7277,7 +7281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -7305,7 +7309,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -7333,7 +7337,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -7359,7 +7363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -7387,7 +7391,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -7415,7 +7419,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -7443,7 +7447,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -7471,7 +7475,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="14" t="s">
         <v>60</v>
       </c>
@@ -7491,7 +7495,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="14" t="s">
         <v>36</v>
       </c>
@@ -7511,7 +7515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -7531,7 +7535,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -7548,15 +7552,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="9" t="s">
         <v>61</v>
       </c>
@@ -7576,82 +7580,82 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="9" t="s">
         <v>82</v>
       </c>
@@ -7659,7 +7663,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>84</v>
       </c>
@@ -7670,7 +7674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>68</v>
       </c>
@@ -7681,7 +7685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>69</v>
       </c>
@@ -7692,7 +7696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>70</v>
       </c>
@@ -7703,7 +7707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>71</v>
       </c>
@@ -7714,7 +7718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>72</v>
       </c>
@@ -7725,7 +7729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>73</v>
       </c>
@@ -7736,7 +7740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>74</v>
       </c>
@@ -7747,7 +7751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>85</v>
       </c>
@@ -7758,7 +7762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>76</v>
       </c>
@@ -7769,7 +7773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>77</v>
       </c>
@@ -7780,7 +7784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>78</v>
       </c>
@@ -7791,7 +7795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>79</v>
       </c>
@@ -7802,7 +7806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>80</v>
       </c>
@@ -7813,7 +7817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>81</v>
       </c>
@@ -7838,9 +7842,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="13" t="s">
         <v>28</v>
@@ -7855,7 +7859,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>25</v>
       </c>
@@ -7872,7 +7876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>27</v>
       </c>
@@ -7889,7 +7893,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>40</v>
       </c>
@@ -7906,7 +7910,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>42</v>
       </c>
@@ -7923,7 +7927,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>44</v>
       </c>
@@ -7940,7 +7944,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>38</v>
       </c>
@@ -7960,7 +7964,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>46</v>
       </c>
@@ -7980,7 +7984,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>39</v>
       </c>
@@ -8000,7 +8004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>47</v>
       </c>
@@ -8020,7 +8024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>48</v>
       </c>
@@ -8040,7 +8044,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>34</v>
       </c>
@@ -8060,7 +8064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>37</v>
       </c>
@@ -8080,7 +8084,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>49</v>
       </c>
@@ -8100,7 +8104,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>35</v>
       </c>
@@ -8120,7 +8124,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>50</v>
       </c>
@@ -8138,7 +8142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>51</v>
       </c>
@@ -8158,7 +8162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>52</v>
       </c>
@@ -8178,7 +8182,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>53</v>
       </c>
@@ -8198,7 +8202,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>54</v>
       </c>
@@ -8218,7 +8222,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>55</v>
       </c>
@@ -8238,7 +8242,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>56</v>
       </c>
@@ -8256,7 +8260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>32</v>
       </c>
@@ -8276,7 +8280,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>57</v>
       </c>
@@ -8296,7 +8300,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>58</v>
       </c>
@@ -8316,7 +8320,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
         <v>59</v>
       </c>
@@ -8336,7 +8340,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>60</v>
       </c>
@@ -8356,7 +8360,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>36</v>
       </c>
@@ -8376,7 +8380,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="58" t="s">
         <v>15</v>
       </c>
@@ -8410,9 +8414,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
@@ -8432,7 +8436,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
@@ -8452,7 +8456,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
@@ -8472,7 +8476,7 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
@@ -8492,7 +8496,7 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
@@ -8512,7 +8516,7 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
@@ -8523,7 +8527,7 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
@@ -8534,7 +8538,7 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
@@ -8545,7 +8549,7 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
@@ -8556,7 +8560,7 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
@@ -8567,7 +8571,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
